--- a/00. Document/screen design.xlsx
+++ b/00. Document/screen design.xlsx
@@ -24,12 +24,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>HOME SCREEN</t>
   </si>
   <si>
-    <t>?</t>
+    <t>1: Thông số</t>
+  </si>
+  <si>
+    <t>2: Kỹ Năng</t>
+  </si>
+  <si>
+    <t>(1)</t>
+  </si>
+  <si>
+    <t>3: Guide…..</t>
+  </si>
+  <si>
+    <t>A: Auto change image</t>
   </si>
 </sst>
 </file>
@@ -45,12 +57,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -65,8 +83,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -252,8 +271,11 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -309,8 +331,11 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -368,8 +393,11 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -427,8 +455,11 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>4</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -487,8 +518,11 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>5</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -544,8 +578,11 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>6</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -579,6 +616,75 @@
         </a:prstGeom>
         <a:solidFill>
           <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Champion</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Rectangle 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3733800" y="1571625"/>
+          <a:ext cx="1095375" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -614,31 +720,33 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Rectangle 11"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3733800" y="1571625"/>
-          <a:ext cx="1095375" cy="238125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF0000"/>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>126782</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Rectangle 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3733801" y="2362200"/>
+          <a:ext cx="1095374" cy="241082"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -673,33 +781,33 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>76201</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>126782</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Rectangle 12"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3733801" y="2362200"/>
-          <a:ext cx="1095374" cy="241082"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="75000"/>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Rectangle 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2495549" y="3257550"/>
+          <a:ext cx="2333626" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="65000"/>
           </a:schemeClr>
         </a:solidFill>
       </xdr:spPr>
@@ -736,32 +844,33 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>57149</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="Rectangle 13"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2495549" y="3257550"/>
-          <a:ext cx="2333626" cy="209550"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="65000"/>
+      <xdr:colOff>47623</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Rectangle 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2486023" y="4229099"/>
+          <a:ext cx="1162051" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
       </xdr:spPr>
@@ -797,35 +906,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>47623</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>600074</xdr:colOff>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>552449</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="Rectangle 14"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2486023" y="4229099"/>
-          <a:ext cx="1162051" cy="219075"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Rectangle 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3695700" y="4219575"/>
+          <a:ext cx="1123949" cy="219074"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -860,66 +966,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>552449</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="Rectangle 15"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3695700" y="4219575"/>
-          <a:ext cx="1123949" cy="219074"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B050"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>ABC</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
       <xdr:row>3</xdr:row>
@@ -1000,6 +1046,240 @@
         </a:prstGeom>
         <a:solidFill>
           <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>A</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>462662</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>42162</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5339462" y="1905000"/>
+          <a:ext cx="798700" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>32202</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>301172</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Rectangle 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6128202" y="1905000"/>
+          <a:ext cx="878570" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>272162</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>461262</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Rectangle 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6977762" y="1905000"/>
+          <a:ext cx="798700" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Rectangle 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5353050" y="2190750"/>
+          <a:ext cx="2419350" cy="2305050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
             <a:lumMod val="60000"/>
             <a:lumOff val="40000"/>
           </a:schemeClr>
@@ -1298,20 +1578,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F3:K3"/>
+  <dimension ref="F3:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F3" t="s">
         <v>0</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="N9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="N11" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="N12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="N13" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/00. Document/screen design.xlsx
+++ b/00. Document/screen design.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>HOME SCREEN</t>
   </si>
@@ -42,6 +42,24 @@
   </si>
   <si>
     <t>A: Auto change image</t>
+  </si>
+  <si>
+    <t>Navi Menu</t>
+  </si>
+  <si>
+    <t>Màn hình Trang phục</t>
+  </si>
+  <si>
+    <t>https://github.com/davidschreiber/FancyCoverFlow</t>
+  </si>
+  <si>
+    <t>Lib2</t>
+  </si>
+  <si>
+    <t>https://code.google.com/p/android-3d-carousel-view/</t>
+  </si>
+  <si>
+    <t>Lib1</t>
   </si>
 </sst>
 </file>
@@ -1084,180 +1102,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>462662</xdr:colOff>
+      <xdr:colOff>476250</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>42162</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Rectangle 5"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5339462" y="1905000"/>
-          <a:ext cx="798700" cy="276225"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>1</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>32202</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>301172</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="Rectangle 18"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6128202" y="1905000"/>
-          <a:ext cx="878570" cy="276225"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>2</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>272162</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>461262</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="Rectangle 20"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6977762" y="1905000"/>
-          <a:ext cx="798700" cy="276225"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>3</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
@@ -1272,8 +1119,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5353050" y="2190750"/>
-          <a:ext cx="2419350" cy="2305050"/>
+          <a:off x="5353050" y="1933575"/>
+          <a:ext cx="2419350" cy="2562225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1307,6 +1154,405 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Rectangle 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9753600" y="762000"/>
+          <a:ext cx="1838325" cy="3724275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Rectangle 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9772650" y="981075"/>
+          <a:ext cx="1800225" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>1.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> Thông số</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Rectangle 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9772650" y="1381125"/>
+          <a:ext cx="1800225" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>2. Kỹ năng</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Rectangle 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9772650" y="1790700"/>
+          <a:ext cx="1800225" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>3. Guide....</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>12989</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>138546</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>296961</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>69274</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1232189" y="6615546"/>
+          <a:ext cx="3941572" cy="2597728"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>285179</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 26"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5400675" y="6629399"/>
+          <a:ext cx="4028504" cy="2524125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>247649</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>447674</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="Rectangle 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6953249" y="1685925"/>
+          <a:ext cx="809625" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>O O O O O</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1578,15 +1824,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F3:N13"/>
+  <dimension ref="B3:R46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F3" t="s">
         <v>0</v>
       </c>
@@ -1594,24 +1840,50 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="R4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="6:18" x14ac:dyDescent="0.25">
       <c r="N9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="6:18" x14ac:dyDescent="0.25">
       <c r="N11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="6:18" x14ac:dyDescent="0.25">
       <c r="N12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="6:18" x14ac:dyDescent="0.25">
       <c r="N13" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
